--- a/03. SourceCode/BKI_QLTTQuocAnh/Template/DANH_SACH_NHAN_VIEN.xlsx
+++ b/03. SourceCode/BKI_QLTTQuocAnh/Template/DANH_SACH_NHAN_VIEN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ta Quang Ngoc\Desktop\DVMD\trunk\03. SourceCode\BKI_QLTTQuocAnh\bin\Debug\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\03. Work\02. Project\02.DichVuMatDat_V2\trunk\03. SourceCode\BKI_QLTTQuocAnh\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>MA_NV</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>15/07/2017</t>
+  </si>
+  <si>
+    <t>NGUOI_BAO_LANH</t>
   </si>
 </sst>
 </file>
@@ -558,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J2:J3"/>
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,9 +594,10 @@
     <col min="29" max="29" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="26.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,8 +691,11 @@
       <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -780,7 +787,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>

--- a/03. SourceCode/BKI_QLTTQuocAnh/Template/DANH_SACH_NHAN_VIEN.xlsx
+++ b/03. SourceCode/BKI_QLTTQuocAnh/Template/DANH_SACH_NHAN_VIEN.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\03. Work\02. Project\02.DichVuMatDat_V2\trunk\03. SourceCode\BKI_QLTTQuocAnh\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roo\Desktop\HRM\trunk\03. SourceCode\BKI_QLTTQuocAnh\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NHAP_LIEU" sheetId="1" r:id="rId1"/>
+    <sheet name="Tham số" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>MA_NV</t>
   </si>
@@ -158,9 +159,6 @@
     <t>Hóa học</t>
   </si>
   <si>
-    <t>Đại học</t>
-  </si>
-  <si>
     <t>Đại học Bách Khoa Hà Nội</t>
   </si>
   <si>
@@ -216,6 +214,36 @@
   </si>
   <si>
     <t>NGUOI_BAO_LANH</t>
+  </si>
+  <si>
+    <t>GIÁO SƯ</t>
+  </si>
+  <si>
+    <t>PHÓ GIÁO SƯ</t>
+  </si>
+  <si>
+    <t>TIẾN SĨ</t>
+  </si>
+  <si>
+    <t>THẠC SỸ</t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC</t>
+  </si>
+  <si>
+    <t>CAO ĐẲNG</t>
+  </si>
+  <si>
+    <t>TRUNG CẤP</t>
+  </si>
+  <si>
+    <t>SƠ CẤP</t>
+  </si>
+  <si>
+    <t>NGHỀ</t>
+  </si>
+  <si>
+    <t>PTTH</t>
   </si>
 </sst>
 </file>
@@ -260,9 +288,31 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -273,13 +323,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -561,19 +615,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF3"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AF1311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" style="4" customWidth="1"/>
@@ -582,6 +640,7 @@
     <col min="12" max="12" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" style="4" customWidth="1"/>
+    <col min="15" max="18" width="9.140625" customWidth="1"/>
     <col min="19" max="20" width="19" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -595,6 +654,7 @@
     <col min="30" max="30" width="26.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -692,7 +752,7 @@
         <v>30</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -712,7 +772,7 @@
         <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>12244444667</v>
@@ -733,7 +793,7 @@
         <v>33668</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" s="4">
         <v>41434</v>
@@ -769,16 +829,16 @@
         <v>43</v>
       </c>
       <c r="Z2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="AA2">
         <v>2013</v>
       </c>
       <c r="AB2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="AD2" s="4">
         <v>42630</v>
@@ -789,28 +849,28 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>14578998707</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" s="4">
         <v>41072</v>
@@ -825,7 +885,7 @@
         <v>33918</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N3" s="4">
         <v>41799</v>
@@ -843,37 +903,37 @@
         <v>40</v>
       </c>
       <c r="S3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" t="s">
         <v>57</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>57</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>58</v>
-      </c>
-      <c r="V3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" t="s">
-        <v>59</v>
       </c>
       <c r="X3" s="2">
         <v>278907567</v>
       </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="AA3">
         <v>2011</v>
       </c>
       <c r="AB3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="AD3" s="4">
         <v>43076</v>
@@ -882,12 +942,1425 @@
         <v>43026</v>
       </c>
     </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25"/>
+    <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="20" x14ac:dyDescent="0.25"/>
+    <row r="21" x14ac:dyDescent="0.25"/>
+    <row r="22" x14ac:dyDescent="0.25"/>
+    <row r="23" x14ac:dyDescent="0.25"/>
+    <row r="24" x14ac:dyDescent="0.25"/>
+    <row r="25" x14ac:dyDescent="0.25"/>
+    <row r="26" x14ac:dyDescent="0.25"/>
+    <row r="27" x14ac:dyDescent="0.25"/>
+    <row r="28" x14ac:dyDescent="0.25"/>
+    <row r="29" x14ac:dyDescent="0.25"/>
+    <row r="30" x14ac:dyDescent="0.25"/>
+    <row r="31" x14ac:dyDescent="0.25"/>
+    <row r="32" x14ac:dyDescent="0.25"/>
+    <row r="33" x14ac:dyDescent="0.25"/>
+    <row r="34" x14ac:dyDescent="0.25"/>
+    <row r="35" x14ac:dyDescent="0.25"/>
+    <row r="36" x14ac:dyDescent="0.25"/>
+    <row r="37" x14ac:dyDescent="0.25"/>
+    <row r="38" x14ac:dyDescent="0.25"/>
+    <row r="39" x14ac:dyDescent="0.25"/>
+    <row r="40" x14ac:dyDescent="0.25"/>
+    <row r="41" x14ac:dyDescent="0.25"/>
+    <row r="42" x14ac:dyDescent="0.25"/>
+    <row r="43" x14ac:dyDescent="0.25"/>
+    <row r="44" x14ac:dyDescent="0.25"/>
+    <row r="45" x14ac:dyDescent="0.25"/>
+    <row r="46" x14ac:dyDescent="0.25"/>
+    <row r="47" x14ac:dyDescent="0.25"/>
+    <row r="48" x14ac:dyDescent="0.25"/>
+    <row r="49" x14ac:dyDescent="0.25"/>
+    <row r="50" x14ac:dyDescent="0.25"/>
+    <row r="51" x14ac:dyDescent="0.25"/>
+    <row r="52" x14ac:dyDescent="0.25"/>
+    <row r="53" x14ac:dyDescent="0.25"/>
+    <row r="54" x14ac:dyDescent="0.25"/>
+    <row r="55" x14ac:dyDescent="0.25"/>
+    <row r="56" x14ac:dyDescent="0.25"/>
+    <row r="57" x14ac:dyDescent="0.25"/>
+    <row r="58" x14ac:dyDescent="0.25"/>
+    <row r="59" x14ac:dyDescent="0.25"/>
+    <row r="60" x14ac:dyDescent="0.25"/>
+    <row r="61" x14ac:dyDescent="0.25"/>
+    <row r="62" x14ac:dyDescent="0.25"/>
+    <row r="63" x14ac:dyDescent="0.25"/>
+    <row r="64" x14ac:dyDescent="0.25"/>
+    <row r="65" x14ac:dyDescent="0.25"/>
+    <row r="66" x14ac:dyDescent="0.25"/>
+    <row r="67" x14ac:dyDescent="0.25"/>
+    <row r="68" x14ac:dyDescent="0.25"/>
+    <row r="69" x14ac:dyDescent="0.25"/>
+    <row r="70" x14ac:dyDescent="0.25"/>
+    <row r="71" x14ac:dyDescent="0.25"/>
+    <row r="72" x14ac:dyDescent="0.25"/>
+    <row r="73" x14ac:dyDescent="0.25"/>
+    <row r="74" x14ac:dyDescent="0.25"/>
+    <row r="75" x14ac:dyDescent="0.25"/>
+    <row r="76" x14ac:dyDescent="0.25"/>
+    <row r="77" x14ac:dyDescent="0.25"/>
+    <row r="78" x14ac:dyDescent="0.25"/>
+    <row r="79" x14ac:dyDescent="0.25"/>
+    <row r="80" x14ac:dyDescent="0.25"/>
+    <row r="81" x14ac:dyDescent="0.25"/>
+    <row r="82" x14ac:dyDescent="0.25"/>
+    <row r="83" x14ac:dyDescent="0.25"/>
+    <row r="84" x14ac:dyDescent="0.25"/>
+    <row r="85" x14ac:dyDescent="0.25"/>
+    <row r="86" x14ac:dyDescent="0.25"/>
+    <row r="87" x14ac:dyDescent="0.25"/>
+    <row r="88" x14ac:dyDescent="0.25"/>
+    <row r="89" x14ac:dyDescent="0.25"/>
+    <row r="90" x14ac:dyDescent="0.25"/>
+    <row r="91" x14ac:dyDescent="0.25"/>
+    <row r="92" x14ac:dyDescent="0.25"/>
+    <row r="93" x14ac:dyDescent="0.25"/>
+    <row r="94" x14ac:dyDescent="0.25"/>
+    <row r="95" x14ac:dyDescent="0.25"/>
+    <row r="96" x14ac:dyDescent="0.25"/>
+    <row r="97" x14ac:dyDescent="0.25"/>
+    <row r="98" x14ac:dyDescent="0.25"/>
+    <row r="99" x14ac:dyDescent="0.25"/>
+    <row r="100" x14ac:dyDescent="0.25"/>
+    <row r="101" x14ac:dyDescent="0.25"/>
+    <row r="102" x14ac:dyDescent="0.25"/>
+    <row r="103" x14ac:dyDescent="0.25"/>
+    <row r="104" x14ac:dyDescent="0.25"/>
+    <row r="105" x14ac:dyDescent="0.25"/>
+    <row r="106" x14ac:dyDescent="0.25"/>
+    <row r="107" x14ac:dyDescent="0.25"/>
+    <row r="108" x14ac:dyDescent="0.25"/>
+    <row r="109" x14ac:dyDescent="0.25"/>
+    <row r="110" x14ac:dyDescent="0.25"/>
+    <row r="111" x14ac:dyDescent="0.25"/>
+    <row r="112" x14ac:dyDescent="0.25"/>
+    <row r="113" x14ac:dyDescent="0.25"/>
+    <row r="114" x14ac:dyDescent="0.25"/>
+    <row r="115" x14ac:dyDescent="0.25"/>
+    <row r="116" x14ac:dyDescent="0.25"/>
+    <row r="117" x14ac:dyDescent="0.25"/>
+    <row r="118" x14ac:dyDescent="0.25"/>
+    <row r="119" x14ac:dyDescent="0.25"/>
+    <row r="120" x14ac:dyDescent="0.25"/>
+    <row r="121" x14ac:dyDescent="0.25"/>
+    <row r="122" x14ac:dyDescent="0.25"/>
+    <row r="123" x14ac:dyDescent="0.25"/>
+    <row r="124" x14ac:dyDescent="0.25"/>
+    <row r="125" x14ac:dyDescent="0.25"/>
+    <row r="126" x14ac:dyDescent="0.25"/>
+    <row r="127" x14ac:dyDescent="0.25"/>
+    <row r="128" x14ac:dyDescent="0.25"/>
+    <row r="129" x14ac:dyDescent="0.25"/>
+    <row r="130" x14ac:dyDescent="0.25"/>
+    <row r="131" x14ac:dyDescent="0.25"/>
+    <row r="132" x14ac:dyDescent="0.25"/>
+    <row r="133" x14ac:dyDescent="0.25"/>
+    <row r="134" x14ac:dyDescent="0.25"/>
+    <row r="135" x14ac:dyDescent="0.25"/>
+    <row r="136" x14ac:dyDescent="0.25"/>
+    <row r="137" x14ac:dyDescent="0.25"/>
+    <row r="138" x14ac:dyDescent="0.25"/>
+    <row r="139" x14ac:dyDescent="0.25"/>
+    <row r="140" x14ac:dyDescent="0.25"/>
+    <row r="141" x14ac:dyDescent="0.25"/>
+    <row r="142" x14ac:dyDescent="0.25"/>
+    <row r="143" x14ac:dyDescent="0.25"/>
+    <row r="144" x14ac:dyDescent="0.25"/>
+    <row r="145" x14ac:dyDescent="0.25"/>
+    <row r="146" x14ac:dyDescent="0.25"/>
+    <row r="147" x14ac:dyDescent="0.25"/>
+    <row r="148" x14ac:dyDescent="0.25"/>
+    <row r="149" x14ac:dyDescent="0.25"/>
+    <row r="150" x14ac:dyDescent="0.25"/>
+    <row r="151" x14ac:dyDescent="0.25"/>
+    <row r="152" x14ac:dyDescent="0.25"/>
+    <row r="153" x14ac:dyDescent="0.25"/>
+    <row r="154" x14ac:dyDescent="0.25"/>
+    <row r="155" x14ac:dyDescent="0.25"/>
+    <row r="156" x14ac:dyDescent="0.25"/>
+    <row r="157" x14ac:dyDescent="0.25"/>
+    <row r="158" x14ac:dyDescent="0.25"/>
+    <row r="159" x14ac:dyDescent="0.25"/>
+    <row r="160" x14ac:dyDescent="0.25"/>
+    <row r="161" x14ac:dyDescent="0.25"/>
+    <row r="162" x14ac:dyDescent="0.25"/>
+    <row r="163" x14ac:dyDescent="0.25"/>
+    <row r="164" x14ac:dyDescent="0.25"/>
+    <row r="165" x14ac:dyDescent="0.25"/>
+    <row r="166" x14ac:dyDescent="0.25"/>
+    <row r="167" x14ac:dyDescent="0.25"/>
+    <row r="168" x14ac:dyDescent="0.25"/>
+    <row r="169" x14ac:dyDescent="0.25"/>
+    <row r="170" x14ac:dyDescent="0.25"/>
+    <row r="171" x14ac:dyDescent="0.25"/>
+    <row r="172" x14ac:dyDescent="0.25"/>
+    <row r="173" x14ac:dyDescent="0.25"/>
+    <row r="174" x14ac:dyDescent="0.25"/>
+    <row r="175" x14ac:dyDescent="0.25"/>
+    <row r="176" x14ac:dyDescent="0.25"/>
+    <row r="177" x14ac:dyDescent="0.25"/>
+    <row r="178" x14ac:dyDescent="0.25"/>
+    <row r="179" x14ac:dyDescent="0.25"/>
+    <row r="180" x14ac:dyDescent="0.25"/>
+    <row r="181" x14ac:dyDescent="0.25"/>
+    <row r="182" x14ac:dyDescent="0.25"/>
+    <row r="183" x14ac:dyDescent="0.25"/>
+    <row r="184" x14ac:dyDescent="0.25"/>
+    <row r="185" x14ac:dyDescent="0.25"/>
+    <row r="186" x14ac:dyDescent="0.25"/>
+    <row r="187" x14ac:dyDescent="0.25"/>
+    <row r="188" x14ac:dyDescent="0.25"/>
+    <row r="189" x14ac:dyDescent="0.25"/>
+    <row r="190" x14ac:dyDescent="0.25"/>
+    <row r="191" x14ac:dyDescent="0.25"/>
+    <row r="192" x14ac:dyDescent="0.25"/>
+    <row r="193" x14ac:dyDescent="0.25"/>
+    <row r="194" x14ac:dyDescent="0.25"/>
+    <row r="195" x14ac:dyDescent="0.25"/>
+    <row r="196" x14ac:dyDescent="0.25"/>
+    <row r="197" x14ac:dyDescent="0.25"/>
+    <row r="198" x14ac:dyDescent="0.25"/>
+    <row r="199" x14ac:dyDescent="0.25"/>
+    <row r="200" x14ac:dyDescent="0.25"/>
+    <row r="201" x14ac:dyDescent="0.25"/>
+    <row r="202" x14ac:dyDescent="0.25"/>
+    <row r="203" x14ac:dyDescent="0.25"/>
+    <row r="204" x14ac:dyDescent="0.25"/>
+    <row r="205" x14ac:dyDescent="0.25"/>
+    <row r="206" x14ac:dyDescent="0.25"/>
+    <row r="207" x14ac:dyDescent="0.25"/>
+    <row r="208" x14ac:dyDescent="0.25"/>
+    <row r="209" x14ac:dyDescent="0.25"/>
+    <row r="210" x14ac:dyDescent="0.25"/>
+    <row r="211" x14ac:dyDescent="0.25"/>
+    <row r="212" x14ac:dyDescent="0.25"/>
+    <row r="213" x14ac:dyDescent="0.25"/>
+    <row r="214" x14ac:dyDescent="0.25"/>
+    <row r="215" x14ac:dyDescent="0.25"/>
+    <row r="216" x14ac:dyDescent="0.25"/>
+    <row r="217" x14ac:dyDescent="0.25"/>
+    <row r="218" x14ac:dyDescent="0.25"/>
+    <row r="219" x14ac:dyDescent="0.25"/>
+    <row r="220" x14ac:dyDescent="0.25"/>
+    <row r="221" x14ac:dyDescent="0.25"/>
+    <row r="222" x14ac:dyDescent="0.25"/>
+    <row r="223" x14ac:dyDescent="0.25"/>
+    <row r="224" x14ac:dyDescent="0.25"/>
+    <row r="225" x14ac:dyDescent="0.25"/>
+    <row r="226" x14ac:dyDescent="0.25"/>
+    <row r="227" x14ac:dyDescent="0.25"/>
+    <row r="228" x14ac:dyDescent="0.25"/>
+    <row r="229" x14ac:dyDescent="0.25"/>
+    <row r="230" x14ac:dyDescent="0.25"/>
+    <row r="231" x14ac:dyDescent="0.25"/>
+    <row r="232" x14ac:dyDescent="0.25"/>
+    <row r="233" x14ac:dyDescent="0.25"/>
+    <row r="234" x14ac:dyDescent="0.25"/>
+    <row r="235" x14ac:dyDescent="0.25"/>
+    <row r="236" x14ac:dyDescent="0.25"/>
+    <row r="237" x14ac:dyDescent="0.25"/>
+    <row r="238" x14ac:dyDescent="0.25"/>
+    <row r="239" x14ac:dyDescent="0.25"/>
+    <row r="240" x14ac:dyDescent="0.25"/>
+    <row r="241" x14ac:dyDescent="0.25"/>
+    <row r="242" x14ac:dyDescent="0.25"/>
+    <row r="243" x14ac:dyDescent="0.25"/>
+    <row r="244" x14ac:dyDescent="0.25"/>
+    <row r="245" x14ac:dyDescent="0.25"/>
+    <row r="246" x14ac:dyDescent="0.25"/>
+    <row r="247" x14ac:dyDescent="0.25"/>
+    <row r="248" x14ac:dyDescent="0.25"/>
+    <row r="249" x14ac:dyDescent="0.25"/>
+    <row r="250" x14ac:dyDescent="0.25"/>
+    <row r="251" x14ac:dyDescent="0.25"/>
+    <row r="252" x14ac:dyDescent="0.25"/>
+    <row r="253" x14ac:dyDescent="0.25"/>
+    <row r="254" x14ac:dyDescent="0.25"/>
+    <row r="255" x14ac:dyDescent="0.25"/>
+    <row r="256" x14ac:dyDescent="0.25"/>
+    <row r="257" x14ac:dyDescent="0.25"/>
+    <row r="258" x14ac:dyDescent="0.25"/>
+    <row r="259" x14ac:dyDescent="0.25"/>
+    <row r="260" x14ac:dyDescent="0.25"/>
+    <row r="261" x14ac:dyDescent="0.25"/>
+    <row r="262" x14ac:dyDescent="0.25"/>
+    <row r="263" x14ac:dyDescent="0.25"/>
+    <row r="264" x14ac:dyDescent="0.25"/>
+    <row r="265" x14ac:dyDescent="0.25"/>
+    <row r="266" x14ac:dyDescent="0.25"/>
+    <row r="267" x14ac:dyDescent="0.25"/>
+    <row r="268" x14ac:dyDescent="0.25"/>
+    <row r="269" x14ac:dyDescent="0.25"/>
+    <row r="270" x14ac:dyDescent="0.25"/>
+    <row r="271" x14ac:dyDescent="0.25"/>
+    <row r="272" x14ac:dyDescent="0.25"/>
+    <row r="273" x14ac:dyDescent="0.25"/>
+    <row r="274" x14ac:dyDescent="0.25"/>
+    <row r="275" x14ac:dyDescent="0.25"/>
+    <row r="276" x14ac:dyDescent="0.25"/>
+    <row r="277" x14ac:dyDescent="0.25"/>
+    <row r="278" x14ac:dyDescent="0.25"/>
+    <row r="279" x14ac:dyDescent="0.25"/>
+    <row r="280" x14ac:dyDescent="0.25"/>
+    <row r="281" x14ac:dyDescent="0.25"/>
+    <row r="282" x14ac:dyDescent="0.25"/>
+    <row r="283" x14ac:dyDescent="0.25"/>
+    <row r="284" x14ac:dyDescent="0.25"/>
+    <row r="285" x14ac:dyDescent="0.25"/>
+    <row r="286" x14ac:dyDescent="0.25"/>
+    <row r="287" x14ac:dyDescent="0.25"/>
+    <row r="288" x14ac:dyDescent="0.25"/>
+    <row r="289" x14ac:dyDescent="0.25"/>
+    <row r="290" x14ac:dyDescent="0.25"/>
+    <row r="291" x14ac:dyDescent="0.25"/>
+    <row r="292" x14ac:dyDescent="0.25"/>
+    <row r="293" x14ac:dyDescent="0.25"/>
+    <row r="294" x14ac:dyDescent="0.25"/>
+    <row r="295" x14ac:dyDescent="0.25"/>
+    <row r="296" x14ac:dyDescent="0.25"/>
+    <row r="297" x14ac:dyDescent="0.25"/>
+    <row r="298" x14ac:dyDescent="0.25"/>
+    <row r="299" x14ac:dyDescent="0.25"/>
+    <row r="300" x14ac:dyDescent="0.25"/>
+    <row r="301" x14ac:dyDescent="0.25"/>
+    <row r="302" x14ac:dyDescent="0.25"/>
+    <row r="303" x14ac:dyDescent="0.25"/>
+    <row r="304" x14ac:dyDescent="0.25"/>
+    <row r="305" x14ac:dyDescent="0.25"/>
+    <row r="306" x14ac:dyDescent="0.25"/>
+    <row r="307" x14ac:dyDescent="0.25"/>
+    <row r="308" x14ac:dyDescent="0.25"/>
+    <row r="309" x14ac:dyDescent="0.25"/>
+    <row r="310" x14ac:dyDescent="0.25"/>
+    <row r="311" x14ac:dyDescent="0.25"/>
+    <row r="312" x14ac:dyDescent="0.25"/>
+    <row r="313" x14ac:dyDescent="0.25"/>
+    <row r="314" x14ac:dyDescent="0.25"/>
+    <row r="315" x14ac:dyDescent="0.25"/>
+    <row r="316" x14ac:dyDescent="0.25"/>
+    <row r="317" x14ac:dyDescent="0.25"/>
+    <row r="318" x14ac:dyDescent="0.25"/>
+    <row r="319" x14ac:dyDescent="0.25"/>
+    <row r="320" x14ac:dyDescent="0.25"/>
+    <row r="321" x14ac:dyDescent="0.25"/>
+    <row r="322" x14ac:dyDescent="0.25"/>
+    <row r="323" x14ac:dyDescent="0.25"/>
+    <row r="324" x14ac:dyDescent="0.25"/>
+    <row r="325" x14ac:dyDescent="0.25"/>
+    <row r="326" x14ac:dyDescent="0.25"/>
+    <row r="327" x14ac:dyDescent="0.25"/>
+    <row r="328" x14ac:dyDescent="0.25"/>
+    <row r="329" x14ac:dyDescent="0.25"/>
+    <row r="330" x14ac:dyDescent="0.25"/>
+    <row r="331" x14ac:dyDescent="0.25"/>
+    <row r="332" x14ac:dyDescent="0.25"/>
+    <row r="333" x14ac:dyDescent="0.25"/>
+    <row r="334" x14ac:dyDescent="0.25"/>
+    <row r="335" x14ac:dyDescent="0.25"/>
+    <row r="336" x14ac:dyDescent="0.25"/>
+    <row r="337" x14ac:dyDescent="0.25"/>
+    <row r="338" x14ac:dyDescent="0.25"/>
+    <row r="339" x14ac:dyDescent="0.25"/>
+    <row r="340" x14ac:dyDescent="0.25"/>
+    <row r="341" x14ac:dyDescent="0.25"/>
+    <row r="342" x14ac:dyDescent="0.25"/>
+    <row r="343" x14ac:dyDescent="0.25"/>
+    <row r="344" x14ac:dyDescent="0.25"/>
+    <row r="345" x14ac:dyDescent="0.25"/>
+    <row r="346" x14ac:dyDescent="0.25"/>
+    <row r="347" x14ac:dyDescent="0.25"/>
+    <row r="348" x14ac:dyDescent="0.25"/>
+    <row r="349" x14ac:dyDescent="0.25"/>
+    <row r="350" x14ac:dyDescent="0.25"/>
+    <row r="351" x14ac:dyDescent="0.25"/>
+    <row r="352" x14ac:dyDescent="0.25"/>
+    <row r="353" x14ac:dyDescent="0.25"/>
+    <row r="354" x14ac:dyDescent="0.25"/>
+    <row r="355" x14ac:dyDescent="0.25"/>
+    <row r="356" x14ac:dyDescent="0.25"/>
+    <row r="357" x14ac:dyDescent="0.25"/>
+    <row r="358" x14ac:dyDescent="0.25"/>
+    <row r="359" x14ac:dyDescent="0.25"/>
+    <row r="360" x14ac:dyDescent="0.25"/>
+    <row r="361" x14ac:dyDescent="0.25"/>
+    <row r="362" x14ac:dyDescent="0.25"/>
+    <row r="363" x14ac:dyDescent="0.25"/>
+    <row r="364" x14ac:dyDescent="0.25"/>
+    <row r="365" x14ac:dyDescent="0.25"/>
+    <row r="366" x14ac:dyDescent="0.25"/>
+    <row r="367" x14ac:dyDescent="0.25"/>
+    <row r="368" x14ac:dyDescent="0.25"/>
+    <row r="369" x14ac:dyDescent="0.25"/>
+    <row r="370" x14ac:dyDescent="0.25"/>
+    <row r="371" x14ac:dyDescent="0.25"/>
+    <row r="372" x14ac:dyDescent="0.25"/>
+    <row r="373" x14ac:dyDescent="0.25"/>
+    <row r="374" x14ac:dyDescent="0.25"/>
+    <row r="375" x14ac:dyDescent="0.25"/>
+    <row r="376" x14ac:dyDescent="0.25"/>
+    <row r="377" x14ac:dyDescent="0.25"/>
+    <row r="378" x14ac:dyDescent="0.25"/>
+    <row r="379" x14ac:dyDescent="0.25"/>
+    <row r="380" x14ac:dyDescent="0.25"/>
+    <row r="381" x14ac:dyDescent="0.25"/>
+    <row r="382" x14ac:dyDescent="0.25"/>
+    <row r="383" x14ac:dyDescent="0.25"/>
+    <row r="384" x14ac:dyDescent="0.25"/>
+    <row r="385" x14ac:dyDescent="0.25"/>
+    <row r="386" x14ac:dyDescent="0.25"/>
+    <row r="387" x14ac:dyDescent="0.25"/>
+    <row r="388" x14ac:dyDescent="0.25"/>
+    <row r="389" x14ac:dyDescent="0.25"/>
+    <row r="390" x14ac:dyDescent="0.25"/>
+    <row r="391" x14ac:dyDescent="0.25"/>
+    <row r="392" x14ac:dyDescent="0.25"/>
+    <row r="393" x14ac:dyDescent="0.25"/>
+    <row r="394" x14ac:dyDescent="0.25"/>
+    <row r="395" x14ac:dyDescent="0.25"/>
+    <row r="396" x14ac:dyDescent="0.25"/>
+    <row r="397" x14ac:dyDescent="0.25"/>
+    <row r="398" x14ac:dyDescent="0.25"/>
+    <row r="399" x14ac:dyDescent="0.25"/>
+    <row r="400" x14ac:dyDescent="0.25"/>
+    <row r="401" x14ac:dyDescent="0.25"/>
+    <row r="402" x14ac:dyDescent="0.25"/>
+    <row r="403" x14ac:dyDescent="0.25"/>
+    <row r="404" x14ac:dyDescent="0.25"/>
+    <row r="405" x14ac:dyDescent="0.25"/>
+    <row r="406" x14ac:dyDescent="0.25"/>
+    <row r="407" x14ac:dyDescent="0.25"/>
+    <row r="408" x14ac:dyDescent="0.25"/>
+    <row r="409" x14ac:dyDescent="0.25"/>
+    <row r="410" x14ac:dyDescent="0.25"/>
+    <row r="411" x14ac:dyDescent="0.25"/>
+    <row r="412" x14ac:dyDescent="0.25"/>
+    <row r="413" x14ac:dyDescent="0.25"/>
+    <row r="414" x14ac:dyDescent="0.25"/>
+    <row r="415" x14ac:dyDescent="0.25"/>
+    <row r="416" x14ac:dyDescent="0.25"/>
+    <row r="417" x14ac:dyDescent="0.25"/>
+    <row r="418" x14ac:dyDescent="0.25"/>
+    <row r="419" x14ac:dyDescent="0.25"/>
+    <row r="420" x14ac:dyDescent="0.25"/>
+    <row r="421" x14ac:dyDescent="0.25"/>
+    <row r="422" x14ac:dyDescent="0.25"/>
+    <row r="423" x14ac:dyDescent="0.25"/>
+    <row r="424" x14ac:dyDescent="0.25"/>
+    <row r="425" x14ac:dyDescent="0.25"/>
+    <row r="426" x14ac:dyDescent="0.25"/>
+    <row r="427" x14ac:dyDescent="0.25"/>
+    <row r="428" x14ac:dyDescent="0.25"/>
+    <row r="429" x14ac:dyDescent="0.25"/>
+    <row r="430" x14ac:dyDescent="0.25"/>
+    <row r="431" x14ac:dyDescent="0.25"/>
+    <row r="432" x14ac:dyDescent="0.25"/>
+    <row r="433" x14ac:dyDescent="0.25"/>
+    <row r="434" x14ac:dyDescent="0.25"/>
+    <row r="435" x14ac:dyDescent="0.25"/>
+    <row r="436" x14ac:dyDescent="0.25"/>
+    <row r="437" x14ac:dyDescent="0.25"/>
+    <row r="438" x14ac:dyDescent="0.25"/>
+    <row r="439" x14ac:dyDescent="0.25"/>
+    <row r="440" x14ac:dyDescent="0.25"/>
+    <row r="441" x14ac:dyDescent="0.25"/>
+    <row r="442" x14ac:dyDescent="0.25"/>
+    <row r="443" x14ac:dyDescent="0.25"/>
+    <row r="444" x14ac:dyDescent="0.25"/>
+    <row r="445" x14ac:dyDescent="0.25"/>
+    <row r="446" x14ac:dyDescent="0.25"/>
+    <row r="447" x14ac:dyDescent="0.25"/>
+    <row r="448" x14ac:dyDescent="0.25"/>
+    <row r="449" x14ac:dyDescent="0.25"/>
+    <row r="450" x14ac:dyDescent="0.25"/>
+    <row r="451" x14ac:dyDescent="0.25"/>
+    <row r="452" x14ac:dyDescent="0.25"/>
+    <row r="453" x14ac:dyDescent="0.25"/>
+    <row r="454" x14ac:dyDescent="0.25"/>
+    <row r="455" x14ac:dyDescent="0.25"/>
+    <row r="456" x14ac:dyDescent="0.25"/>
+    <row r="457" x14ac:dyDescent="0.25"/>
+    <row r="458" x14ac:dyDescent="0.25"/>
+    <row r="459" x14ac:dyDescent="0.25"/>
+    <row r="460" x14ac:dyDescent="0.25"/>
+    <row r="461" x14ac:dyDescent="0.25"/>
+    <row r="462" x14ac:dyDescent="0.25"/>
+    <row r="463" x14ac:dyDescent="0.25"/>
+    <row r="464" x14ac:dyDescent="0.25"/>
+    <row r="465" x14ac:dyDescent="0.25"/>
+    <row r="466" x14ac:dyDescent="0.25"/>
+    <row r="467" x14ac:dyDescent="0.25"/>
+    <row r="468" x14ac:dyDescent="0.25"/>
+    <row r="469" x14ac:dyDescent="0.25"/>
+    <row r="470" x14ac:dyDescent="0.25"/>
+    <row r="471" x14ac:dyDescent="0.25"/>
+    <row r="472" x14ac:dyDescent="0.25"/>
+    <row r="473" x14ac:dyDescent="0.25"/>
+    <row r="474" x14ac:dyDescent="0.25"/>
+    <row r="475" x14ac:dyDescent="0.25"/>
+    <row r="476" x14ac:dyDescent="0.25"/>
+    <row r="477" x14ac:dyDescent="0.25"/>
+    <row r="478" x14ac:dyDescent="0.25"/>
+    <row r="479" x14ac:dyDescent="0.25"/>
+    <row r="480" x14ac:dyDescent="0.25"/>
+    <row r="481" x14ac:dyDescent="0.25"/>
+    <row r="482" x14ac:dyDescent="0.25"/>
+    <row r="483" x14ac:dyDescent="0.25"/>
+    <row r="484" x14ac:dyDescent="0.25"/>
+    <row r="485" x14ac:dyDescent="0.25"/>
+    <row r="486" x14ac:dyDescent="0.25"/>
+    <row r="487" x14ac:dyDescent="0.25"/>
+    <row r="488" x14ac:dyDescent="0.25"/>
+    <row r="489" x14ac:dyDescent="0.25"/>
+    <row r="490" x14ac:dyDescent="0.25"/>
+    <row r="491" x14ac:dyDescent="0.25"/>
+    <row r="492" x14ac:dyDescent="0.25"/>
+    <row r="493" x14ac:dyDescent="0.25"/>
+    <row r="494" x14ac:dyDescent="0.25"/>
+    <row r="495" x14ac:dyDescent="0.25"/>
+    <row r="496" x14ac:dyDescent="0.25"/>
+    <row r="497" x14ac:dyDescent="0.25"/>
+    <row r="498" x14ac:dyDescent="0.25"/>
+    <row r="499" x14ac:dyDescent="0.25"/>
+    <row r="500" x14ac:dyDescent="0.25"/>
+    <row r="501" x14ac:dyDescent="0.25"/>
+    <row r="502" x14ac:dyDescent="0.25"/>
+    <row r="503" x14ac:dyDescent="0.25"/>
+    <row r="504" x14ac:dyDescent="0.25"/>
+    <row r="505" x14ac:dyDescent="0.25"/>
+    <row r="506" x14ac:dyDescent="0.25"/>
+    <row r="507" x14ac:dyDescent="0.25"/>
+    <row r="508" x14ac:dyDescent="0.25"/>
+    <row r="509" x14ac:dyDescent="0.25"/>
+    <row r="510" x14ac:dyDescent="0.25"/>
+    <row r="511" x14ac:dyDescent="0.25"/>
+    <row r="512" x14ac:dyDescent="0.25"/>
+    <row r="513" x14ac:dyDescent="0.25"/>
+    <row r="514" x14ac:dyDescent="0.25"/>
+    <row r="515" x14ac:dyDescent="0.25"/>
+    <row r="516" x14ac:dyDescent="0.25"/>
+    <row r="517" x14ac:dyDescent="0.25"/>
+    <row r="518" x14ac:dyDescent="0.25"/>
+    <row r="519" x14ac:dyDescent="0.25"/>
+    <row r="520" x14ac:dyDescent="0.25"/>
+    <row r="521" x14ac:dyDescent="0.25"/>
+    <row r="522" x14ac:dyDescent="0.25"/>
+    <row r="523" x14ac:dyDescent="0.25"/>
+    <row r="524" x14ac:dyDescent="0.25"/>
+    <row r="525" x14ac:dyDescent="0.25"/>
+    <row r="526" x14ac:dyDescent="0.25"/>
+    <row r="527" x14ac:dyDescent="0.25"/>
+    <row r="528" x14ac:dyDescent="0.25"/>
+    <row r="529" x14ac:dyDescent="0.25"/>
+    <row r="530" x14ac:dyDescent="0.25"/>
+    <row r="531" x14ac:dyDescent="0.25"/>
+    <row r="532" x14ac:dyDescent="0.25"/>
+    <row r="533" x14ac:dyDescent="0.25"/>
+    <row r="534" x14ac:dyDescent="0.25"/>
+    <row r="535" x14ac:dyDescent="0.25"/>
+    <row r="536" x14ac:dyDescent="0.25"/>
+    <row r="537" x14ac:dyDescent="0.25"/>
+    <row r="538" x14ac:dyDescent="0.25"/>
+    <row r="539" x14ac:dyDescent="0.25"/>
+    <row r="540" x14ac:dyDescent="0.25"/>
+    <row r="541" x14ac:dyDescent="0.25"/>
+    <row r="542" x14ac:dyDescent="0.25"/>
+    <row r="543" x14ac:dyDescent="0.25"/>
+    <row r="544" x14ac:dyDescent="0.25"/>
+    <row r="545" x14ac:dyDescent="0.25"/>
+    <row r="546" x14ac:dyDescent="0.25"/>
+    <row r="547" x14ac:dyDescent="0.25"/>
+    <row r="548" x14ac:dyDescent="0.25"/>
+    <row r="549" x14ac:dyDescent="0.25"/>
+    <row r="550" x14ac:dyDescent="0.25"/>
+    <row r="551" x14ac:dyDescent="0.25"/>
+    <row r="552" x14ac:dyDescent="0.25"/>
+    <row r="553" x14ac:dyDescent="0.25"/>
+    <row r="554" x14ac:dyDescent="0.25"/>
+    <row r="555" x14ac:dyDescent="0.25"/>
+    <row r="556" x14ac:dyDescent="0.25"/>
+    <row r="557" x14ac:dyDescent="0.25"/>
+    <row r="558" x14ac:dyDescent="0.25"/>
+    <row r="559" x14ac:dyDescent="0.25"/>
+    <row r="560" x14ac:dyDescent="0.25"/>
+    <row r="561" x14ac:dyDescent="0.25"/>
+    <row r="562" x14ac:dyDescent="0.25"/>
+    <row r="563" x14ac:dyDescent="0.25"/>
+    <row r="564" x14ac:dyDescent="0.25"/>
+    <row r="565" x14ac:dyDescent="0.25"/>
+    <row r="566" x14ac:dyDescent="0.25"/>
+    <row r="567" x14ac:dyDescent="0.25"/>
+    <row r="568" x14ac:dyDescent="0.25"/>
+    <row r="569" x14ac:dyDescent="0.25"/>
+    <row r="570" x14ac:dyDescent="0.25"/>
+    <row r="571" x14ac:dyDescent="0.25"/>
+    <row r="572" x14ac:dyDescent="0.25"/>
+    <row r="573" x14ac:dyDescent="0.25"/>
+    <row r="574" x14ac:dyDescent="0.25"/>
+    <row r="575" x14ac:dyDescent="0.25"/>
+    <row r="576" x14ac:dyDescent="0.25"/>
+    <row r="577" x14ac:dyDescent="0.25"/>
+    <row r="578" x14ac:dyDescent="0.25"/>
+    <row r="579" x14ac:dyDescent="0.25"/>
+    <row r="580" x14ac:dyDescent="0.25"/>
+    <row r="581" x14ac:dyDescent="0.25"/>
+    <row r="582" x14ac:dyDescent="0.25"/>
+    <row r="583" x14ac:dyDescent="0.25"/>
+    <row r="584" x14ac:dyDescent="0.25"/>
+    <row r="585" x14ac:dyDescent="0.25"/>
+    <row r="586" x14ac:dyDescent="0.25"/>
+    <row r="587" x14ac:dyDescent="0.25"/>
+    <row r="588" x14ac:dyDescent="0.25"/>
+    <row r="589" x14ac:dyDescent="0.25"/>
+    <row r="590" x14ac:dyDescent="0.25"/>
+    <row r="591" x14ac:dyDescent="0.25"/>
+    <row r="592" x14ac:dyDescent="0.25"/>
+    <row r="593" x14ac:dyDescent="0.25"/>
+    <row r="594" x14ac:dyDescent="0.25"/>
+    <row r="595" x14ac:dyDescent="0.25"/>
+    <row r="596" x14ac:dyDescent="0.25"/>
+    <row r="597" x14ac:dyDescent="0.25"/>
+    <row r="598" x14ac:dyDescent="0.25"/>
+    <row r="599" x14ac:dyDescent="0.25"/>
+    <row r="600" x14ac:dyDescent="0.25"/>
+    <row r="601" x14ac:dyDescent="0.25"/>
+    <row r="602" x14ac:dyDescent="0.25"/>
+    <row r="603" x14ac:dyDescent="0.25"/>
+    <row r="604" x14ac:dyDescent="0.25"/>
+    <row r="605" x14ac:dyDescent="0.25"/>
+    <row r="606" x14ac:dyDescent="0.25"/>
+    <row r="607" x14ac:dyDescent="0.25"/>
+    <row r="608" x14ac:dyDescent="0.25"/>
+    <row r="609" x14ac:dyDescent="0.25"/>
+    <row r="610" x14ac:dyDescent="0.25"/>
+    <row r="611" x14ac:dyDescent="0.25"/>
+    <row r="612" x14ac:dyDescent="0.25"/>
+    <row r="613" x14ac:dyDescent="0.25"/>
+    <row r="614" x14ac:dyDescent="0.25"/>
+    <row r="615" x14ac:dyDescent="0.25"/>
+    <row r="616" x14ac:dyDescent="0.25"/>
+    <row r="617" x14ac:dyDescent="0.25"/>
+    <row r="618" x14ac:dyDescent="0.25"/>
+    <row r="619" x14ac:dyDescent="0.25"/>
+    <row r="620" x14ac:dyDescent="0.25"/>
+    <row r="621" x14ac:dyDescent="0.25"/>
+    <row r="622" x14ac:dyDescent="0.25"/>
+    <row r="623" x14ac:dyDescent="0.25"/>
+    <row r="624" x14ac:dyDescent="0.25"/>
+    <row r="625" x14ac:dyDescent="0.25"/>
+    <row r="626" x14ac:dyDescent="0.25"/>
+    <row r="627" x14ac:dyDescent="0.25"/>
+    <row r="628" x14ac:dyDescent="0.25"/>
+    <row r="629" x14ac:dyDescent="0.25"/>
+    <row r="630" x14ac:dyDescent="0.25"/>
+    <row r="631" x14ac:dyDescent="0.25"/>
+    <row r="632" x14ac:dyDescent="0.25"/>
+    <row r="633" x14ac:dyDescent="0.25"/>
+    <row r="634" x14ac:dyDescent="0.25"/>
+    <row r="635" x14ac:dyDescent="0.25"/>
+    <row r="636" x14ac:dyDescent="0.25"/>
+    <row r="637" x14ac:dyDescent="0.25"/>
+    <row r="638" x14ac:dyDescent="0.25"/>
+    <row r="639" x14ac:dyDescent="0.25"/>
+    <row r="640" x14ac:dyDescent="0.25"/>
+    <row r="641" x14ac:dyDescent="0.25"/>
+    <row r="642" x14ac:dyDescent="0.25"/>
+    <row r="643" x14ac:dyDescent="0.25"/>
+    <row r="644" x14ac:dyDescent="0.25"/>
+    <row r="645" x14ac:dyDescent="0.25"/>
+    <row r="646" x14ac:dyDescent="0.25"/>
+    <row r="647" x14ac:dyDescent="0.25"/>
+    <row r="648" x14ac:dyDescent="0.25"/>
+    <row r="649" x14ac:dyDescent="0.25"/>
+    <row r="650" x14ac:dyDescent="0.25"/>
+    <row r="651" x14ac:dyDescent="0.25"/>
+    <row r="652" x14ac:dyDescent="0.25"/>
+    <row r="653" x14ac:dyDescent="0.25"/>
+    <row r="654" x14ac:dyDescent="0.25"/>
+    <row r="655" x14ac:dyDescent="0.25"/>
+    <row r="656" x14ac:dyDescent="0.25"/>
+    <row r="657" x14ac:dyDescent="0.25"/>
+    <row r="658" x14ac:dyDescent="0.25"/>
+    <row r="659" x14ac:dyDescent="0.25"/>
+    <row r="660" x14ac:dyDescent="0.25"/>
+    <row r="661" x14ac:dyDescent="0.25"/>
+    <row r="662" x14ac:dyDescent="0.25"/>
+    <row r="663" x14ac:dyDescent="0.25"/>
+    <row r="664" x14ac:dyDescent="0.25"/>
+    <row r="665" x14ac:dyDescent="0.25"/>
+    <row r="666" x14ac:dyDescent="0.25"/>
+    <row r="667" x14ac:dyDescent="0.25"/>
+    <row r="668" x14ac:dyDescent="0.25"/>
+    <row r="669" x14ac:dyDescent="0.25"/>
+    <row r="670" x14ac:dyDescent="0.25"/>
+    <row r="671" x14ac:dyDescent="0.25"/>
+    <row r="672" x14ac:dyDescent="0.25"/>
+    <row r="673" x14ac:dyDescent="0.25"/>
+    <row r="674" x14ac:dyDescent="0.25"/>
+    <row r="675" x14ac:dyDescent="0.25"/>
+    <row r="676" x14ac:dyDescent="0.25"/>
+    <row r="677" x14ac:dyDescent="0.25"/>
+    <row r="678" x14ac:dyDescent="0.25"/>
+    <row r="679" x14ac:dyDescent="0.25"/>
+    <row r="680" x14ac:dyDescent="0.25"/>
+    <row r="681" x14ac:dyDescent="0.25"/>
+    <row r="682" x14ac:dyDescent="0.25"/>
+    <row r="683" x14ac:dyDescent="0.25"/>
+    <row r="684" x14ac:dyDescent="0.25"/>
+    <row r="685" x14ac:dyDescent="0.25"/>
+    <row r="686" x14ac:dyDescent="0.25"/>
+    <row r="687" x14ac:dyDescent="0.25"/>
+    <row r="688" x14ac:dyDescent="0.25"/>
+    <row r="689" x14ac:dyDescent="0.25"/>
+    <row r="690" x14ac:dyDescent="0.25"/>
+    <row r="691" x14ac:dyDescent="0.25"/>
+    <row r="692" x14ac:dyDescent="0.25"/>
+    <row r="693" x14ac:dyDescent="0.25"/>
+    <row r="694" x14ac:dyDescent="0.25"/>
+    <row r="695" x14ac:dyDescent="0.25"/>
+    <row r="696" x14ac:dyDescent="0.25"/>
+    <row r="697" x14ac:dyDescent="0.25"/>
+    <row r="698" x14ac:dyDescent="0.25"/>
+    <row r="699" x14ac:dyDescent="0.25"/>
+    <row r="700" x14ac:dyDescent="0.25"/>
+    <row r="701" x14ac:dyDescent="0.25"/>
+    <row r="702" x14ac:dyDescent="0.25"/>
+    <row r="703" x14ac:dyDescent="0.25"/>
+    <row r="704" x14ac:dyDescent="0.25"/>
+    <row r="705" x14ac:dyDescent="0.25"/>
+    <row r="706" x14ac:dyDescent="0.25"/>
+    <row r="707" x14ac:dyDescent="0.25"/>
+    <row r="708" x14ac:dyDescent="0.25"/>
+    <row r="709" x14ac:dyDescent="0.25"/>
+    <row r="710" x14ac:dyDescent="0.25"/>
+    <row r="711" x14ac:dyDescent="0.25"/>
+    <row r="712" x14ac:dyDescent="0.25"/>
+    <row r="713" x14ac:dyDescent="0.25"/>
+    <row r="714" x14ac:dyDescent="0.25"/>
+    <row r="715" x14ac:dyDescent="0.25"/>
+    <row r="716" x14ac:dyDescent="0.25"/>
+    <row r="717" x14ac:dyDescent="0.25"/>
+    <row r="718" x14ac:dyDescent="0.25"/>
+    <row r="719" x14ac:dyDescent="0.25"/>
+    <row r="720" x14ac:dyDescent="0.25"/>
+    <row r="721" x14ac:dyDescent="0.25"/>
+    <row r="722" x14ac:dyDescent="0.25"/>
+    <row r="723" x14ac:dyDescent="0.25"/>
+    <row r="724" x14ac:dyDescent="0.25"/>
+    <row r="725" x14ac:dyDescent="0.25"/>
+    <row r="726" x14ac:dyDescent="0.25"/>
+    <row r="727" x14ac:dyDescent="0.25"/>
+    <row r="728" x14ac:dyDescent="0.25"/>
+    <row r="729" x14ac:dyDescent="0.25"/>
+    <row r="730" x14ac:dyDescent="0.25"/>
+    <row r="731" x14ac:dyDescent="0.25"/>
+    <row r="732" x14ac:dyDescent="0.25"/>
+    <row r="733" x14ac:dyDescent="0.25"/>
+    <row r="734" x14ac:dyDescent="0.25"/>
+    <row r="735" x14ac:dyDescent="0.25"/>
+    <row r="736" x14ac:dyDescent="0.25"/>
+    <row r="737" x14ac:dyDescent="0.25"/>
+    <row r="738" x14ac:dyDescent="0.25"/>
+    <row r="739" x14ac:dyDescent="0.25"/>
+    <row r="740" x14ac:dyDescent="0.25"/>
+    <row r="741" x14ac:dyDescent="0.25"/>
+    <row r="742" x14ac:dyDescent="0.25"/>
+    <row r="743" x14ac:dyDescent="0.25"/>
+    <row r="744" x14ac:dyDescent="0.25"/>
+    <row r="745" x14ac:dyDescent="0.25"/>
+    <row r="746" x14ac:dyDescent="0.25"/>
+    <row r="747" x14ac:dyDescent="0.25"/>
+    <row r="748" x14ac:dyDescent="0.25"/>
+    <row r="749" x14ac:dyDescent="0.25"/>
+    <row r="750" x14ac:dyDescent="0.25"/>
+    <row r="751" x14ac:dyDescent="0.25"/>
+    <row r="752" x14ac:dyDescent="0.25"/>
+    <row r="753" x14ac:dyDescent="0.25"/>
+    <row r="754" x14ac:dyDescent="0.25"/>
+    <row r="755" x14ac:dyDescent="0.25"/>
+    <row r="756" x14ac:dyDescent="0.25"/>
+    <row r="757" x14ac:dyDescent="0.25"/>
+    <row r="758" x14ac:dyDescent="0.25"/>
+    <row r="759" x14ac:dyDescent="0.25"/>
+    <row r="760" x14ac:dyDescent="0.25"/>
+    <row r="761" x14ac:dyDescent="0.25"/>
+    <row r="762" x14ac:dyDescent="0.25"/>
+    <row r="763" x14ac:dyDescent="0.25"/>
+    <row r="764" x14ac:dyDescent="0.25"/>
+    <row r="765" x14ac:dyDescent="0.25"/>
+    <row r="766" x14ac:dyDescent="0.25"/>
+    <row r="767" x14ac:dyDescent="0.25"/>
+    <row r="768" x14ac:dyDescent="0.25"/>
+    <row r="769" x14ac:dyDescent="0.25"/>
+    <row r="770" x14ac:dyDescent="0.25"/>
+    <row r="771" x14ac:dyDescent="0.25"/>
+    <row r="772" x14ac:dyDescent="0.25"/>
+    <row r="773" x14ac:dyDescent="0.25"/>
+    <row r="774" x14ac:dyDescent="0.25"/>
+    <row r="775" x14ac:dyDescent="0.25"/>
+    <row r="776" x14ac:dyDescent="0.25"/>
+    <row r="777" x14ac:dyDescent="0.25"/>
+    <row r="778" x14ac:dyDescent="0.25"/>
+    <row r="779" x14ac:dyDescent="0.25"/>
+    <row r="780" x14ac:dyDescent="0.25"/>
+    <row r="781" x14ac:dyDescent="0.25"/>
+    <row r="782" x14ac:dyDescent="0.25"/>
+    <row r="783" x14ac:dyDescent="0.25"/>
+    <row r="784" x14ac:dyDescent="0.25"/>
+    <row r="785" x14ac:dyDescent="0.25"/>
+    <row r="786" x14ac:dyDescent="0.25"/>
+    <row r="787" x14ac:dyDescent="0.25"/>
+    <row r="788" x14ac:dyDescent="0.25"/>
+    <row r="789" x14ac:dyDescent="0.25"/>
+    <row r="790" x14ac:dyDescent="0.25"/>
+    <row r="791" x14ac:dyDescent="0.25"/>
+    <row r="792" x14ac:dyDescent="0.25"/>
+    <row r="793" x14ac:dyDescent="0.25"/>
+    <row r="794" x14ac:dyDescent="0.25"/>
+    <row r="795" x14ac:dyDescent="0.25"/>
+    <row r="796" x14ac:dyDescent="0.25"/>
+    <row r="797" x14ac:dyDescent="0.25"/>
+    <row r="798" x14ac:dyDescent="0.25"/>
+    <row r="799" x14ac:dyDescent="0.25"/>
+    <row r="800" x14ac:dyDescent="0.25"/>
+    <row r="801" x14ac:dyDescent="0.25"/>
+    <row r="802" x14ac:dyDescent="0.25"/>
+    <row r="803" x14ac:dyDescent="0.25"/>
+    <row r="804" x14ac:dyDescent="0.25"/>
+    <row r="805" x14ac:dyDescent="0.25"/>
+    <row r="806" x14ac:dyDescent="0.25"/>
+    <row r="807" x14ac:dyDescent="0.25"/>
+    <row r="808" x14ac:dyDescent="0.25"/>
+    <row r="809" x14ac:dyDescent="0.25"/>
+    <row r="810" x14ac:dyDescent="0.25"/>
+    <row r="811" x14ac:dyDescent="0.25"/>
+    <row r="812" x14ac:dyDescent="0.25"/>
+    <row r="813" x14ac:dyDescent="0.25"/>
+    <row r="814" x14ac:dyDescent="0.25"/>
+    <row r="815" x14ac:dyDescent="0.25"/>
+    <row r="816" x14ac:dyDescent="0.25"/>
+    <row r="817" x14ac:dyDescent="0.25"/>
+    <row r="818" x14ac:dyDescent="0.25"/>
+    <row r="819" x14ac:dyDescent="0.25"/>
+    <row r="820" x14ac:dyDescent="0.25"/>
+    <row r="821" x14ac:dyDescent="0.25"/>
+    <row r="822" x14ac:dyDescent="0.25"/>
+    <row r="823" x14ac:dyDescent="0.25"/>
+    <row r="824" x14ac:dyDescent="0.25"/>
+    <row r="825" x14ac:dyDescent="0.25"/>
+    <row r="826" x14ac:dyDescent="0.25"/>
+    <row r="827" x14ac:dyDescent="0.25"/>
+    <row r="828" x14ac:dyDescent="0.25"/>
+    <row r="829" x14ac:dyDescent="0.25"/>
+    <row r="830" x14ac:dyDescent="0.25"/>
+    <row r="831" x14ac:dyDescent="0.25"/>
+    <row r="832" x14ac:dyDescent="0.25"/>
+    <row r="833" x14ac:dyDescent="0.25"/>
+    <row r="834" x14ac:dyDescent="0.25"/>
+    <row r="835" x14ac:dyDescent="0.25"/>
+    <row r="836" x14ac:dyDescent="0.25"/>
+    <row r="837" x14ac:dyDescent="0.25"/>
+    <row r="838" x14ac:dyDescent="0.25"/>
+    <row r="839" x14ac:dyDescent="0.25"/>
+    <row r="840" x14ac:dyDescent="0.25"/>
+    <row r="841" x14ac:dyDescent="0.25"/>
+    <row r="842" x14ac:dyDescent="0.25"/>
+    <row r="843" x14ac:dyDescent="0.25"/>
+    <row r="844" x14ac:dyDescent="0.25"/>
+    <row r="845" x14ac:dyDescent="0.25"/>
+    <row r="846" x14ac:dyDescent="0.25"/>
+    <row r="847" x14ac:dyDescent="0.25"/>
+    <row r="848" x14ac:dyDescent="0.25"/>
+    <row r="849" x14ac:dyDescent="0.25"/>
+    <row r="850" x14ac:dyDescent="0.25"/>
+    <row r="851" x14ac:dyDescent="0.25"/>
+    <row r="852" x14ac:dyDescent="0.25"/>
+    <row r="853" x14ac:dyDescent="0.25"/>
+    <row r="854" x14ac:dyDescent="0.25"/>
+    <row r="855" x14ac:dyDescent="0.25"/>
+    <row r="856" x14ac:dyDescent="0.25"/>
+    <row r="857" x14ac:dyDescent="0.25"/>
+    <row r="858" x14ac:dyDescent="0.25"/>
+    <row r="859" x14ac:dyDescent="0.25"/>
+    <row r="860" x14ac:dyDescent="0.25"/>
+    <row r="861" x14ac:dyDescent="0.25"/>
+    <row r="862" x14ac:dyDescent="0.25"/>
+    <row r="863" x14ac:dyDescent="0.25"/>
+    <row r="864" x14ac:dyDescent="0.25"/>
+    <row r="865" x14ac:dyDescent="0.25"/>
+    <row r="866" x14ac:dyDescent="0.25"/>
+    <row r="867" x14ac:dyDescent="0.25"/>
+    <row r="868" x14ac:dyDescent="0.25"/>
+    <row r="869" x14ac:dyDescent="0.25"/>
+    <row r="870" x14ac:dyDescent="0.25"/>
+    <row r="871" x14ac:dyDescent="0.25"/>
+    <row r="872" x14ac:dyDescent="0.25"/>
+    <row r="873" x14ac:dyDescent="0.25"/>
+    <row r="874" x14ac:dyDescent="0.25"/>
+    <row r="875" x14ac:dyDescent="0.25"/>
+    <row r="876" x14ac:dyDescent="0.25"/>
+    <row r="877" x14ac:dyDescent="0.25"/>
+    <row r="878" x14ac:dyDescent="0.25"/>
+    <row r="879" x14ac:dyDescent="0.25"/>
+    <row r="880" x14ac:dyDescent="0.25"/>
+    <row r="881" x14ac:dyDescent="0.25"/>
+    <row r="882" x14ac:dyDescent="0.25"/>
+    <row r="883" x14ac:dyDescent="0.25"/>
+    <row r="884" x14ac:dyDescent="0.25"/>
+    <row r="885" x14ac:dyDescent="0.25"/>
+    <row r="886" x14ac:dyDescent="0.25"/>
+    <row r="887" x14ac:dyDescent="0.25"/>
+    <row r="888" x14ac:dyDescent="0.25"/>
+    <row r="889" x14ac:dyDescent="0.25"/>
+    <row r="890" x14ac:dyDescent="0.25"/>
+    <row r="891" x14ac:dyDescent="0.25"/>
+    <row r="892" x14ac:dyDescent="0.25"/>
+    <row r="893" x14ac:dyDescent="0.25"/>
+    <row r="894" x14ac:dyDescent="0.25"/>
+    <row r="895" x14ac:dyDescent="0.25"/>
+    <row r="896" x14ac:dyDescent="0.25"/>
+    <row r="897" x14ac:dyDescent="0.25"/>
+    <row r="898" x14ac:dyDescent="0.25"/>
+    <row r="899" x14ac:dyDescent="0.25"/>
+    <row r="900" x14ac:dyDescent="0.25"/>
+    <row r="901" x14ac:dyDescent="0.25"/>
+    <row r="902" x14ac:dyDescent="0.25"/>
+    <row r="903" x14ac:dyDescent="0.25"/>
+    <row r="904" x14ac:dyDescent="0.25"/>
+    <row r="905" x14ac:dyDescent="0.25"/>
+    <row r="906" x14ac:dyDescent="0.25"/>
+    <row r="907" x14ac:dyDescent="0.25"/>
+    <row r="908" x14ac:dyDescent="0.25"/>
+    <row r="909" x14ac:dyDescent="0.25"/>
+    <row r="910" x14ac:dyDescent="0.25"/>
+    <row r="911" x14ac:dyDescent="0.25"/>
+    <row r="912" x14ac:dyDescent="0.25"/>
+    <row r="913" x14ac:dyDescent="0.25"/>
+    <row r="914" x14ac:dyDescent="0.25"/>
+    <row r="915" x14ac:dyDescent="0.25"/>
+    <row r="916" x14ac:dyDescent="0.25"/>
+    <row r="917" x14ac:dyDescent="0.25"/>
+    <row r="918" x14ac:dyDescent="0.25"/>
+    <row r="919" x14ac:dyDescent="0.25"/>
+    <row r="920" x14ac:dyDescent="0.25"/>
+    <row r="921" x14ac:dyDescent="0.25"/>
+    <row r="922" x14ac:dyDescent="0.25"/>
+    <row r="923" x14ac:dyDescent="0.25"/>
+    <row r="924" x14ac:dyDescent="0.25"/>
+    <row r="925" x14ac:dyDescent="0.25"/>
+    <row r="926" x14ac:dyDescent="0.25"/>
+    <row r="927" x14ac:dyDescent="0.25"/>
+    <row r="928" x14ac:dyDescent="0.25"/>
+    <row r="929" x14ac:dyDescent="0.25"/>
+    <row r="930" x14ac:dyDescent="0.25"/>
+    <row r="931" x14ac:dyDescent="0.25"/>
+    <row r="932" x14ac:dyDescent="0.25"/>
+    <row r="933" x14ac:dyDescent="0.25"/>
+    <row r="934" x14ac:dyDescent="0.25"/>
+    <row r="935" x14ac:dyDescent="0.25"/>
+    <row r="936" x14ac:dyDescent="0.25"/>
+    <row r="937" x14ac:dyDescent="0.25"/>
+    <row r="938" x14ac:dyDescent="0.25"/>
+    <row r="939" x14ac:dyDescent="0.25"/>
+    <row r="940" x14ac:dyDescent="0.25"/>
+    <row r="941" x14ac:dyDescent="0.25"/>
+    <row r="942" x14ac:dyDescent="0.25"/>
+    <row r="943" x14ac:dyDescent="0.25"/>
+    <row r="944" x14ac:dyDescent="0.25"/>
+    <row r="945" x14ac:dyDescent="0.25"/>
+    <row r="946" x14ac:dyDescent="0.25"/>
+    <row r="947" x14ac:dyDescent="0.25"/>
+    <row r="948" x14ac:dyDescent="0.25"/>
+    <row r="949" x14ac:dyDescent="0.25"/>
+    <row r="950" x14ac:dyDescent="0.25"/>
+    <row r="951" x14ac:dyDescent="0.25"/>
+    <row r="952" x14ac:dyDescent="0.25"/>
+    <row r="953" x14ac:dyDescent="0.25"/>
+    <row r="954" x14ac:dyDescent="0.25"/>
+    <row r="955" x14ac:dyDescent="0.25"/>
+    <row r="956" x14ac:dyDescent="0.25"/>
+    <row r="957" x14ac:dyDescent="0.25"/>
+    <row r="958" x14ac:dyDescent="0.25"/>
+    <row r="959" x14ac:dyDescent="0.25"/>
+    <row r="960" x14ac:dyDescent="0.25"/>
+    <row r="961" x14ac:dyDescent="0.25"/>
+    <row r="962" x14ac:dyDescent="0.25"/>
+    <row r="963" x14ac:dyDescent="0.25"/>
+    <row r="964" x14ac:dyDescent="0.25"/>
+    <row r="965" x14ac:dyDescent="0.25"/>
+    <row r="966" x14ac:dyDescent="0.25"/>
+    <row r="967" x14ac:dyDescent="0.25"/>
+    <row r="968" x14ac:dyDescent="0.25"/>
+    <row r="969" x14ac:dyDescent="0.25"/>
+    <row r="970" x14ac:dyDescent="0.25"/>
+    <row r="971" x14ac:dyDescent="0.25"/>
+    <row r="972" x14ac:dyDescent="0.25"/>
+    <row r="973" x14ac:dyDescent="0.25"/>
+    <row r="974" x14ac:dyDescent="0.25"/>
+    <row r="975" x14ac:dyDescent="0.25"/>
+    <row r="976" x14ac:dyDescent="0.25"/>
+    <row r="977" x14ac:dyDescent="0.25"/>
+    <row r="978" x14ac:dyDescent="0.25"/>
+    <row r="979" x14ac:dyDescent="0.25"/>
+    <row r="980" x14ac:dyDescent="0.25"/>
+    <row r="981" x14ac:dyDescent="0.25"/>
+    <row r="982" x14ac:dyDescent="0.25"/>
+    <row r="983" x14ac:dyDescent="0.25"/>
+    <row r="984" x14ac:dyDescent="0.25"/>
+    <row r="985" x14ac:dyDescent="0.25"/>
+    <row r="986" x14ac:dyDescent="0.25"/>
+    <row r="987" x14ac:dyDescent="0.25"/>
+    <row r="988" x14ac:dyDescent="0.25"/>
+    <row r="989" x14ac:dyDescent="0.25"/>
+    <row r="990" x14ac:dyDescent="0.25"/>
+    <row r="991" x14ac:dyDescent="0.25"/>
+    <row r="992" x14ac:dyDescent="0.25"/>
+    <row r="993" x14ac:dyDescent="0.25"/>
+    <row r="994" x14ac:dyDescent="0.25"/>
+    <row r="995" x14ac:dyDescent="0.25"/>
+    <row r="996" x14ac:dyDescent="0.25"/>
+    <row r="997" x14ac:dyDescent="0.25"/>
+    <row r="998" x14ac:dyDescent="0.25"/>
+    <row r="999" x14ac:dyDescent="0.25"/>
+    <row r="1000" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1014" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1017" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1018" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1019" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1020" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1021" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1022" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1023" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1024" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1025" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1026" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1027" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1028" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1029" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1030" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1031" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1032" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1033" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1034" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1035" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1036" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1037" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1038" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1039" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1040" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1041" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1042" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1043" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1044" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1045" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1046" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1047" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1048" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1049" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1050" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1051" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1052" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1053" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1054" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1055" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1056" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1057" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1058" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1059" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1060" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1061" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1062" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1063" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1064" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1065" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1066" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1067" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1068" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1069" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1070" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1071" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1072" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1073" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1074" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1075" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1076" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1077" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1078" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1079" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1080" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1081" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1082" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1083" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1084" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1085" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1086" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1087" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1088" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1089" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1090" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1091" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1092" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1093" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1094" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1095" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1096" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1097" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1098" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1099" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1100" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1101" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1102" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1103" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1104" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1105" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1106" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1107" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1108" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1109" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1110" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1111" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1112" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1113" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1114" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1115" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1116" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1117" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1118" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1119" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1120" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1121" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1122" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1123" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1124" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1125" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1126" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1128" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1284" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1285" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1286" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1287" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1288" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1289" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1290" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1291" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1292" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1293" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1294" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1295" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1296" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1297" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1298" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1299" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1300" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1301" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1302" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1303" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1304" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1305" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1306" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1307" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1308" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1309" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1310" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1311" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <dataConsolidate>
+    <dataRefs count="1">
+      <dataRef ref="A2:A11" sheet="Tham số"/>
+    </dataRefs>
+  </dataConsolidate>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Tham số'!$A$2:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z2:Z1311</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>